--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D74A46-C3F6-4248-9327-41EC20AB9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202DC60-E504-42CD-B0A1-9EACC3C2752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32400" yWindow="-8730" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="-11445" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202DC60-E504-42CD-B0A1-9EACC3C2752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513B026-1FC0-46AA-83DD-78C8DFDB1F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="-11445" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513B026-1FC0-46AA-83DD-78C8DFDB1F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0851D-EA6A-4B16-B935-EC705A19E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0851D-EA6A-4B16-B935-EC705A19E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9087427-E2BE-4FEF-841C-1CEAAD62127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9087427-E2BE-4FEF-841C-1CEAAD62127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF04FE-B783-4CE7-98B6-F4128F92A03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="-11055" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF04FE-B783-4CE7-98B6-F4128F92A03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDCF07-9F99-4931-87BB-F1E9F177AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDCF07-9F99-4931-87BB-F1E9F177AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59584794-DD07-4929-9B38-130CD312EF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59584794-DD07-4929-9B38-130CD312EF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6DC6E-1E06-48AE-94F3-FEF7ED5212CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6DC6E-1E06-48AE-94F3-FEF7ED5212CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC724D63-2B69-4CF5-A9B2-FD54AFC1AC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC724D63-2B69-4CF5-A9B2-FD54AFC1AC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186A4A7-8C16-4E74-9272-77C171734DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186A4A7-8C16-4E74-9272-77C171734DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5862664-CC14-46D3-9EFA-06E804B14651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5862664-CC14-46D3-9EFA-06E804B14651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74A0589-F772-4B21-951B-269201A06A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34755" yWindow="-10185" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2040.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74A0589-F772-4B21-951B-269201A06A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381224D3-5E29-4FFD-8CCF-5405C55C6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34320" yWindow="-10620" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
